--- a/analysis/mails_01/P16_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P16_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,6 +63,12 @@
     <t xml:space="preserve">sandfilter</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4781</t>
+  </si>
+  <si>
     <t xml:space="preserve">drinking_water</t>
   </si>
   <si>
@@ -87,48 +93,96 @@
     <t xml:space="preserve">MFD03267</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5451</t>
+  </si>
+  <si>
     <t xml:space="preserve">tørød</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03268</t>
   </si>
   <si>
+    <t xml:space="preserve">55.757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3214</t>
+  </si>
+  <si>
     <t xml:space="preserve">måløv</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03269</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4754</t>
+  </si>
+  <si>
     <t xml:space="preserve">sjælsø</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03270</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4799</t>
+  </si>
+  <si>
     <t xml:space="preserve">søborg</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03271</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3947</t>
+  </si>
+  <si>
     <t xml:space="preserve">lautrup</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03272</t>
   </si>
   <si>
+    <t xml:space="preserve">55.743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3315</t>
+  </si>
+  <si>
     <t xml:space="preserve">pilegård</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03273</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3566</t>
+  </si>
+  <si>
     <t xml:space="preserve">ballerup</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03274</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4551</t>
+  </si>
+  <si>
     <t xml:space="preserve">islevbro</t>
   </si>
   <si>
@@ -138,19 +192,70 @@
     <t xml:space="preserve">MFD03276</t>
   </si>
   <si>
+    <t xml:space="preserve">55.696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6791</t>
+  </si>
+  <si>
     <t xml:space="preserve">langerød</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03277</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4068</t>
+  </si>
+  <si>
     <t xml:space="preserve">glostrup</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03278</t>
   </si>
   <si>
-    <t xml:space="preserve">water(dilute)</t>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5586</t>
   </si>
   <si>
     <t xml:space="preserve">3120</t>
@@ -162,46 +267,31 @@
     <t xml:space="preserve">Waterworks stage</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD03279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03289</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03290</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4377</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03291</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4918</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0473</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -277,7 +367,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +377,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE0A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE38140"/>
       </patternFill>
     </fill>
   </fills>
@@ -302,10 +397,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,1130 +747,1018 @@
         <v>15</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" t="n">
-        <v>55.8127</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12.4781</v>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" t="n">
-        <v>55.8341</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12.5451</v>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" t="n">
-        <v>55.757</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.3214</v>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12.4754</v>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" t="n">
-        <v>55.8737</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12.4799</v>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" t="n">
-        <v>55.7425</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12.3947</v>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" t="n">
-        <v>55.743</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12.3315</v>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" t="n">
-        <v>55.7333</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12.3566</v>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" t="n">
-        <v>55.7032</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12.4551</v>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" t="n">
-        <v>55.7032</v>
-      </c>
-      <c r="E11" t="n">
-        <v>12.4551</v>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" t="n">
-        <v>55.696</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11.6791</v>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" t="n">
-        <v>55.6625</v>
-      </c>
-      <c r="E13" t="n">
-        <v>12.4068</v>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12.4754</v>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.4754</v>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.4754</v>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12.4754</v>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" s="2"/>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E18" t="n">
-        <v>12.4754</v>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E19" t="n">
-        <v>12.4754</v>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" s="2"/>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12.4754</v>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" s="2"/>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12.4754</v>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" s="2"/>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E22" t="n">
-        <v>12.4754</v>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" s="2"/>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E23" t="n">
-        <v>12.4754</v>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" s="2"/>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" t="n">
-        <v>55.8748</v>
-      </c>
-      <c r="E24" t="n">
-        <v>12.4754</v>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" s="2"/>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" t="n">
-        <v>55.7335</v>
-      </c>
-      <c r="E25" t="n">
-        <v>12.5586</v>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="N25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" t="n">
-        <v>55.8454</v>
-      </c>
-      <c r="E26" t="n">
-        <v>12.4377</v>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="M26" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="N26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" t="n">
-        <v>55.9001</v>
-      </c>
-      <c r="E27" t="n">
-        <v>12.4918</v>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="M27" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="N27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" t="n">
-        <v>55.6236</v>
-      </c>
-      <c r="E28" t="n">
-        <v>12.0473</v>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="N28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1793,10 +1777,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
@@ -1804,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -1812,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -1820,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -1828,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -1836,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -1844,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1852,7 +1836,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -1860,7 +1844,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1868,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1876,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -1884,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -1892,7 +1876,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -1900,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -1908,7 +1892,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P16_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P16_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">drinking_water</t>
   </si>
   <si>
-    <t xml:space="preserve">1100</t>
+    <t xml:space="preserve">3120</t>
   </si>
   <si>
     <t xml:space="preserve">holte</t>
@@ -84,7 +84,10 @@
     <t xml:space="preserve">Urban</t>
   </si>
   <si>
-    <t xml:space="preserve">Sandfilter</t>
+    <t xml:space="preserve">Drinking water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterworks stage</t>
   </si>
   <si>
     <t xml:space="preserve">Urban - Drinking water</t>
@@ -219,6 +222,12 @@
     <t xml:space="preserve">water</t>
   </si>
   <si>
+    <t xml:space="preserve">3110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncleaned/raw water</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03279</t>
   </si>
   <si>
@@ -231,6 +240,12 @@
     <t xml:space="preserve">MFD03282</t>
   </si>
   <si>
+    <t xml:space="preserve">3130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtered water</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03283</t>
   </si>
   <si>
@@ -243,6 +258,12 @@
     <t xml:space="preserve">MFD03286</t>
   </si>
   <si>
+    <t xml:space="preserve">3140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treated water</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03287</t>
   </si>
   <si>
@@ -258,13 +279,10 @@
     <t xml:space="preserve">12.5586</t>
   </si>
   <si>
-    <t xml:space="preserve">3120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drinking water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waterworks stage</t>
+    <t xml:space="preserve">3300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tap water</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03290</t>
@@ -769,29 +787,31 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -800,7 +820,7 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -809,29 +829,31 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -840,7 +862,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
@@ -849,29 +871,31 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -880,7 +904,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -889,29 +913,31 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -920,7 +946,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -929,29 +955,31 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -960,7 +988,7 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
@@ -969,29 +997,31 @@
         <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -1000,7 +1030,7 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
@@ -1009,29 +1039,31 @@
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -1040,7 +1072,7 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
@@ -1049,29 +1081,31 @@
         <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1080,7 +1114,7 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -1089,29 +1123,31 @@
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -1120,7 +1156,7 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
@@ -1129,29 +1165,31 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1160,7 +1198,7 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
@@ -1169,29 +1207,31 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -1200,7 +1240,7 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
@@ -1209,36 +1249,40 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
@@ -1246,33 +1290,41 @@
       <c r="J14" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
@@ -1280,33 +1332,41 @@
       <c r="J15" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
@@ -1314,33 +1374,41 @@
       <c r="J16" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
@@ -1348,33 +1416,41 @@
       <c r="J17" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
       <c r="N17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
@@ -1382,33 +1458,41 @@
       <c r="J18" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -1416,33 +1500,41 @@
       <c r="J19" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" t="s">
+        <v>15</v>
+      </c>
       <c r="N19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -1450,33 +1542,41 @@
       <c r="J20" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
       <c r="N20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
         <v>21</v>
@@ -1484,33 +1584,41 @@
       <c r="J21" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
@@ -1518,33 +1626,41 @@
       <c r="J22" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>15</v>
+      </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
@@ -1552,33 +1668,41 @@
       <c r="J23" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
       <c r="N23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -1586,35 +1710,41 @@
       <c r="J24" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
       <c r="N24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -1623,40 +1753,40 @@
         <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="N25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s">
         <v>21</v>
@@ -1665,40 +1795,40 @@
         <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="N26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
@@ -1707,58 +1837,1176 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" t="s">
+        <v>70</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" t="s">
+        <v>70</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" t="s">
+        <v>70</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" t="s">
+        <v>70</v>
+      </c>
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" t="s">
+        <v>76</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s">
+        <v>82</v>
+      </c>
+      <c r="N42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" t="s">
+        <v>82</v>
+      </c>
+      <c r="N43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" t="s">
+        <v>82</v>
+      </c>
+      <c r="N44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" t="s">
+        <v>82</v>
+      </c>
+      <c r="N46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" t="s">
+        <v>82</v>
+      </c>
+      <c r="N47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" t="s">
+        <v>89</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s">
         <v>91</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E50" t="s">
         <v>92</v>
       </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" t="s">
-        <v>82</v>
-      </c>
-      <c r="M28" t="s">
-        <v>83</v>
-      </c>
-      <c r="N28" t="s">
-        <v>24</v>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" t="s">
+        <v>89</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" t="s">
+        <v>89</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" t="s">
+        <v>89</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" t="s">
+        <v>89</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" t="s">
+        <v>89</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" t="s">
+        <v>89</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1777,10 +3025,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
@@ -1788,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
@@ -1796,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -1804,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -1812,7 +3060,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -1820,7 +3068,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
@@ -1828,7 +3076,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -1836,7 +3084,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -1844,7 +3092,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1852,7 +3100,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -1860,7 +3108,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1868,7 +3116,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -1876,7 +3124,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -1884,7 +3132,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -1892,7 +3140,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
